--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_TarisSG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="26" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="106">
   <si>
     <t>STT</t>
   </si>
@@ -312,9 +312,6 @@
     <t>Lock: 203.162.69.75,30011</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Lock: 203.162.69.75,30000</t>
   </si>
   <si>
@@ -343,6 +340,18 @@
   </si>
   <si>
     <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>25/02/2021</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180320 </t>
+  </si>
+  <si>
+    <t>203.162.69.75,30030</t>
   </si>
 </sst>
 </file>
@@ -1069,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1285,7 +1294,9 @@
       <c r="B6" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42" t="s">
+        <v>102</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>44</v>
       </c>
@@ -1313,7 +1324,9 @@
         <v>84</v>
       </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
+      <c r="O6" s="45" t="s">
+        <v>103</v>
+      </c>
       <c r="P6" s="45" t="s">
         <v>68</v>
       </c>
@@ -1340,7 +1353,9 @@
       <c r="B7" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="42" t="s">
+        <v>102</v>
+      </c>
       <c r="D7" s="43" t="s">
         <v>44</v>
       </c>
@@ -1368,7 +1383,9 @@
         <v>79</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
+      <c r="O7" s="45" t="s">
+        <v>103</v>
+      </c>
       <c r="P7" s="45" t="s">
         <v>68</v>
       </c>
@@ -1393,7 +1410,9 @@
       <c r="B8" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="42" t="s">
+        <v>102</v>
+      </c>
       <c r="D8" s="43" t="s">
         <v>44</v>
       </c>
@@ -1421,7 +1440,9 @@
         <v>79</v>
       </c>
       <c r="N8" s="61"/>
-      <c r="O8" s="45"/>
+      <c r="O8" s="45" t="s">
+        <v>103</v>
+      </c>
       <c r="P8" s="45" t="s">
         <v>68</v>
       </c>
@@ -1446,7 +1467,9 @@
       <c r="B9" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="42"/>
+      <c r="C9" s="42" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" s="43" t="s">
         <v>44</v>
       </c>
@@ -1459,10 +1482,10 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="45" t="s">
         <v>93</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>94</v>
       </c>
       <c r="K9" s="45" t="s">
         <v>69</v>
@@ -1471,10 +1494,12 @@
         <v>75</v>
       </c>
       <c r="M9" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="45"/>
+      <c r="O9" s="45" t="s">
+        <v>103</v>
+      </c>
       <c r="P9" s="1" t="s">
         <v>68</v>
       </c>
@@ -1499,7 +1524,9 @@
       <c r="B10" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="42" t="s">
+        <v>102</v>
+      </c>
       <c r="D10" s="43" t="s">
         <v>44</v>
       </c>
@@ -1527,7 +1554,9 @@
         <v>88</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="45"/>
+      <c r="O10" s="45" t="s">
+        <v>103</v>
+      </c>
       <c r="P10" s="45" t="s">
         <v>68</v>
       </c>
@@ -1552,7 +1581,9 @@
       <c r="B11" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="42" t="s">
+        <v>102</v>
+      </c>
       <c r="D11" s="43" t="s">
         <v>44</v>
       </c>
@@ -1565,22 +1596,24 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="45" t="s">
-        <v>98</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L11" s="45" t="s">
         <v>75</v>
       </c>
       <c r="M11" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="45"/>
+      <c r="O11" s="45" t="s">
+        <v>103</v>
+      </c>
       <c r="P11" s="1" t="s">
         <v>68</v>
       </c>
@@ -1605,7 +1638,9 @@
       <c r="B12" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="42" t="s">
+        <v>102</v>
+      </c>
       <c r="D12" s="43" t="s">
         <v>44</v>
       </c>
@@ -1634,7 +1669,7 @@
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="45" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>68</v>
@@ -1662,7 +1697,9 @@
       <c r="B13" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="42" t="s">
+        <v>102</v>
+      </c>
       <c r="D13" s="43" t="s">
         <v>44</v>
       </c>
@@ -1690,7 +1727,9 @@
         <v>88</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="45"/>
+      <c r="O13" s="45" t="s">
+        <v>103</v>
+      </c>
       <c r="P13" s="1" t="s">
         <v>68</v>
       </c>
@@ -1715,7 +1754,9 @@
       <c r="B14" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="42"/>
+      <c r="C14" s="42" t="s">
+        <v>102</v>
+      </c>
       <c r="D14" s="43" t="s">
         <v>44</v>
       </c>
@@ -1741,7 +1782,9 @@
         <v>70</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="45"/>
+      <c r="O14" s="45" t="s">
+        <v>103</v>
+      </c>
       <c r="P14" s="1" t="s">
         <v>68</v>
       </c>
@@ -3070,8 +3113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3522,9 +3565,13 @@
         <v>62</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="J12" s="45"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="L12" s="45"/>
       <c r="M12" s="45"/>
       <c r="N12" s="1"/>
@@ -3673,14 +3720,14 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L16" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M16" s="45" t="s">
         <v>38</v>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_TarisSG.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="114">
   <si>
     <t>STT</t>
   </si>
@@ -252,9 +252,6 @@
     <t>PC+PM</t>
   </si>
   <si>
-    <t>Lk,NCFW</t>
-  </si>
-  <si>
     <t>LK, NCFW</t>
   </si>
   <si>
@@ -352,6 +349,33 @@
   </si>
   <si>
     <t>203.162.69.75,30030</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.57,20003</t>
+  </si>
+  <si>
+    <t>Thiết bị mất Imei</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại thiết bị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.170909 </t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20075</t>
   </si>
 </sst>
 </file>
@@ -733,6 +757,30 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,31 +793,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1079,7 +1103,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1111,43 +1135,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1192,58 +1216,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="67" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -1268,23 +1292,23 @@
       <c r="I5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="67"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1295,7 +1319,7 @@
         <v>66</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>44</v>
@@ -1309,23 +1333,23 @@
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="45" t="s">
         <v>82</v>
-      </c>
-      <c r="J6" s="45" t="s">
-        <v>83</v>
       </c>
       <c r="K6" s="48" t="s">
         <v>69</v>
       </c>
       <c r="L6" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M6" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N6" s="47"/>
       <c r="O6" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P6" s="45" t="s">
         <v>68</v>
@@ -1334,11 +1358,11 @@
         <v>71</v>
       </c>
       <c r="R6" s="43" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1354,7 +1378,7 @@
         <v>66</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="43" t="s">
         <v>44</v>
@@ -1368,23 +1392,23 @@
       </c>
       <c r="H7" s="43"/>
       <c r="I7" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="45" t="s">
         <v>76</v>
-      </c>
-      <c r="J7" s="45" t="s">
-        <v>77</v>
       </c>
       <c r="K7" s="48" t="s">
         <v>69</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M7" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P7" s="45" t="s">
         <v>68</v>
@@ -1393,11 +1417,11 @@
         <v>71</v>
       </c>
       <c r="R7" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1411,7 +1435,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="43" t="s">
         <v>44</v>
@@ -1425,23 +1449,23 @@
       </c>
       <c r="H8" s="43"/>
       <c r="I8" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K8" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L8" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M8" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N8" s="61"/>
       <c r="O8" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P8" s="45" t="s">
         <v>68</v>
@@ -1450,11 +1474,11 @@
         <v>71</v>
       </c>
       <c r="R8" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1468,7 +1492,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="43" t="s">
         <v>44</v>
@@ -1482,23 +1506,23 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="45" t="s">
         <v>92</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>93</v>
       </c>
       <c r="K9" s="45" t="s">
         <v>69</v>
       </c>
       <c r="L9" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M9" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>68</v>
@@ -1507,11 +1531,11 @@
         <v>71</v>
       </c>
       <c r="R9" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1525,7 +1549,7 @@
         <v>66</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="43" t="s">
         <v>44</v>
@@ -1539,23 +1563,23 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P10" s="45" t="s">
         <v>68</v>
@@ -1564,11 +1588,11 @@
         <v>19</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1582,7 +1606,7 @@
         <v>66</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="43" t="s">
         <v>44</v>
@@ -1596,23 +1620,23 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="K11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="45" t="s">
         <v>97</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="45" t="s">
-        <v>98</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>68</v>
@@ -1621,11 +1645,11 @@
         <v>71</v>
       </c>
       <c r="R11" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1639,7 +1663,7 @@
         <v>66</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>44</v>
@@ -1653,23 +1677,23 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L12" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>68</v>
@@ -1678,11 +1702,11 @@
         <v>19</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1698,7 +1722,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="43" t="s">
         <v>44</v>
@@ -1712,23 +1736,23 @@
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>68</v>
@@ -1737,11 +1761,11 @@
         <v>19</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1755,7 +1779,7 @@
         <v>66</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>44</v>
@@ -1770,20 +1794,20 @@
       <c r="H14" s="1"/>
       <c r="I14" s="45"/>
       <c r="J14" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>69</v>
       </c>
       <c r="L14" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M14" s="45" t="s">
         <v>70</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>68</v>
@@ -1792,11 +1816,11 @@
         <v>71</v>
       </c>
       <c r="R14" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1825,7 +1849,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1854,7 +1878,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3085,6 +3109,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3096,13 +3127,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3114,7 +3138,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3146,43 +3170,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3227,58 +3251,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="67" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -3303,23 +3327,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="67"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3353,7 +3377,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3392,7 +3416,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3429,7 +3453,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3466,7 +3490,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3491,10 +3515,16 @@
         <v>62</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="58"/>
+      <c r="I10" s="58" t="s">
+        <v>113</v>
+      </c>
       <c r="J10" s="45"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="45"/>
+      <c r="K10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" s="45" t="s">
+        <v>111</v>
+      </c>
       <c r="M10" s="45"/>
       <c r="N10" s="1"/>
       <c r="O10" s="45"/>
@@ -3503,7 +3533,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3528,19 +3558,37 @@
         <v>62</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
+      <c r="I11" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>109</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="45"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="4"/>
+      <c r="P11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T11" s="13"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3566,13 +3614,15 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J12" s="45"/>
       <c r="K12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L12" s="45"/>
+        <v>103</v>
+      </c>
+      <c r="L12" s="45" t="s">
+        <v>111</v>
+      </c>
       <c r="M12" s="45"/>
       <c r="N12" s="1"/>
       <c r="O12" s="45"/>
@@ -3581,7 +3631,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3620,7 +3670,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3657,7 +3707,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3694,7 +3744,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3720,17 +3770,19 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L16" s="45" t="s">
-        <v>101</v>
-      </c>
       <c r="M16" s="45" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="45"/>
@@ -3738,14 +3790,16 @@
         <v>68</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="R16" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="S16" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3864,7 +3918,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -3928,7 +3982,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -4205,7 +4259,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="16"/>
     </row>
@@ -4333,7 +4387,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -4397,7 +4451,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -4976,11 +5030,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -4994,6 +5043,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5037,43 +5091,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -5118,58 +5172,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="67" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -5194,23 +5248,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="67"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5236,7 +5290,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5267,7 +5321,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5296,7 +5350,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5325,7 +5379,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5354,7 +5408,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5383,7 +5437,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5412,7 +5466,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5443,7 +5497,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5472,7 +5526,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5501,7 +5555,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5530,7 +5584,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6761,6 +6815,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6772,13 +6833,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_TarisSG.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="123">
   <si>
     <t>STT</t>
   </si>
@@ -376,6 +376,33 @@
   </si>
   <si>
     <t>Lock: 203.162.69.75,20075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.181101 </t>
+  </si>
+  <si>
+    <t>Lock: 112.213.94.88,30003</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.18,16883</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liện tục, không nhận sim</t>
+  </si>
+  <si>
+    <t>Nạp lại FW, nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>MCH,LK</t>
+  </si>
+  <si>
+    <t>Không khởi động được thiết bị, thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>MCH,LK,NCFW</t>
+  </si>
+  <si>
+    <t>203.162.69.18,17883</t>
   </si>
 </sst>
 </file>
@@ -757,9 +784,24 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -779,21 +821,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1135,43 +1162,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1216,58 +1243,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="67" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -1292,23 +1319,23 @@
       <c r="I5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="67"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1362,7 +1389,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1421,7 +1448,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1478,7 +1505,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1535,7 +1562,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1592,7 +1619,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1649,7 +1676,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1706,7 +1733,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1765,7 +1792,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1820,7 +1847,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1849,7 +1876,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1878,7 +1905,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3109,13 +3136,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3127,6 +3147,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3137,8 +3164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3170,43 +3197,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3251,58 +3278,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="67" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -3327,23 +3354,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="67"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3353,7 +3380,9 @@
       <c r="B6" s="42">
         <v>44257</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42">
+        <v>44411</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>67</v>
       </c>
@@ -3365,19 +3394,37 @@
         <v>62</v>
       </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="45"/>
+      <c r="I6" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>117</v>
+      </c>
       <c r="K6" s="48"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="L6" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>118</v>
+      </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="4"/>
+      <c r="O6" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T6" s="13"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3392,7 +3439,9 @@
       <c r="B7" s="42">
         <v>44257</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="42">
+        <v>44411</v>
+      </c>
       <c r="D7" s="43" t="s">
         <v>67</v>
       </c>
@@ -3404,19 +3453,39 @@
         <v>62</v>
       </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="4"/>
+      <c r="I7" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="N7" s="61"/>
+      <c r="O7" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T7" s="13"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3429,7 +3498,9 @@
       <c r="B8" s="42">
         <v>44257</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="42">
+        <v>44411</v>
+      </c>
       <c r="D8" s="43" t="s">
         <v>67</v>
       </c>
@@ -3441,19 +3512,39 @@
         <v>62</v>
       </c>
       <c r="H8" s="43"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="I8" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>105</v>
+      </c>
       <c r="N8" s="61"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="4"/>
+      <c r="O8" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T8" s="13"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3466,7 +3557,9 @@
       <c r="B9" s="42">
         <v>44257</v>
       </c>
-      <c r="C9" s="42"/>
+      <c r="C9" s="42">
+        <v>44411</v>
+      </c>
       <c r="D9" s="43" t="s">
         <v>67</v>
       </c>
@@ -3478,19 +3571,39 @@
         <v>62</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
+      <c r="I9" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>105</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="4"/>
+      <c r="O9" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T9" s="23"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3503,7 +3616,9 @@
       <c r="B10" s="42">
         <v>44257</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="42">
+        <v>44411</v>
+      </c>
       <c r="D10" s="43" t="s">
         <v>67</v>
       </c>
@@ -3518,22 +3633,36 @@
       <c r="I10" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="J10" s="45"/>
+      <c r="J10" s="45" t="s">
+        <v>86</v>
+      </c>
       <c r="K10" s="1" t="s">
         <v>112</v>
       </c>
       <c r="L10" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="M10" s="45"/>
+      <c r="M10" s="45" t="s">
+        <v>105</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="4"/>
+      <c r="O10" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T10" s="32"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3546,7 +3675,9 @@
       <c r="B11" s="42">
         <v>44257</v>
       </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="42">
+        <v>44411</v>
+      </c>
       <c r="D11" s="43" t="s">
         <v>67</v>
       </c>
@@ -3574,7 +3705,9 @@
         <v>109</v>
       </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="45"/>
+      <c r="O11" s="45" t="s">
+        <v>102</v>
+      </c>
       <c r="P11" s="1" t="s">
         <v>68</v>
       </c>
@@ -3588,7 +3721,7 @@
         <v>106</v>
       </c>
       <c r="T11" s="13"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3601,7 +3734,9 @@
       <c r="B12" s="42">
         <v>44257</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="42">
+        <v>44411</v>
+      </c>
       <c r="D12" s="43" t="s">
         <v>67</v>
       </c>
@@ -3616,22 +3751,36 @@
       <c r="I12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J12" s="45"/>
+      <c r="J12" s="45" t="s">
+        <v>86</v>
+      </c>
       <c r="K12" s="1" t="s">
         <v>103</v>
       </c>
       <c r="L12" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="M12" s="45"/>
+      <c r="M12" s="45" t="s">
+        <v>105</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="4"/>
+      <c r="O12" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R12" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T12" s="13"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3646,7 +3795,9 @@
       <c r="B13" s="42">
         <v>44257</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="42">
+        <v>44411</v>
+      </c>
       <c r="D13" s="43" t="s">
         <v>67</v>
       </c>
@@ -3658,19 +3809,39 @@
         <v>62</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="1"/>
+      <c r="I13" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>105</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="4"/>
+      <c r="O13" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R13" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T13" s="13"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3683,7 +3854,9 @@
       <c r="B14" s="42">
         <v>44257</v>
       </c>
-      <c r="C14" s="42"/>
+      <c r="C14" s="42">
+        <v>44411</v>
+      </c>
       <c r="D14" s="43" t="s">
         <v>67</v>
       </c>
@@ -3695,19 +3868,39 @@
         <v>62</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+      <c r="I14" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>105</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="4"/>
+      <c r="O14" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R14" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T14" s="13"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3720,7 +3913,9 @@
       <c r="B15" s="42">
         <v>44257</v>
       </c>
-      <c r="C15" s="42"/>
+      <c r="C15" s="42">
+        <v>44411</v>
+      </c>
       <c r="D15" s="43" t="s">
         <v>67</v>
       </c>
@@ -3732,19 +3927,37 @@
         <v>62</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="45"/>
+      <c r="I15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>120</v>
+      </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
+      <c r="L15" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>118</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="4"/>
+      <c r="O15" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T15" s="16"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3757,7 +3970,9 @@
       <c r="B16" s="42">
         <v>44257</v>
       </c>
-      <c r="C16" s="42"/>
+      <c r="C16" s="42">
+        <v>44411</v>
+      </c>
       <c r="D16" s="43" t="s">
         <v>67</v>
       </c>
@@ -3785,7 +4000,9 @@
         <v>105</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="45"/>
+      <c r="O16" s="45" t="s">
+        <v>102</v>
+      </c>
       <c r="P16" s="1" t="s">
         <v>68</v>
       </c>
@@ -3799,7 +4016,7 @@
         <v>106</v>
       </c>
       <c r="T16" s="16"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3982,7 +4199,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -4259,7 +4476,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="W31" s="16"/>
     </row>
@@ -4291,7 +4508,7 @@
       </c>
       <c r="V32" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="16"/>
     </row>
@@ -4387,7 +4604,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -4451,7 +4668,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -5030,6 +5247,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -5043,11 +5265,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5091,43 +5308,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -5172,58 +5389,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="67" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -5248,23 +5465,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="67"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5290,7 +5507,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5321,7 +5538,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5350,7 +5567,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5379,7 +5596,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5408,7 +5625,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5437,7 +5654,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5466,7 +5683,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5497,7 +5714,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5526,7 +5743,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5555,7 +5772,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5584,7 +5801,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6815,13 +7032,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6833,6 +7043,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_TarisSG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang2\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang2\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="26" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="106">
   <si>
     <t>STT</t>
   </si>
@@ -548,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -715,9 +715,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -733,6 +730,30 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,31 +766,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1078,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1111,43 +1108,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1192,99 +1189,99 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="67" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="60" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="60" t="s">
+      <c r="J5" s="61"/>
+      <c r="K5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="67"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1308,7 +1305,7 @@
         <v>63</v>
       </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="56" t="s">
         <v>82</v>
       </c>
       <c r="J6" s="45" t="s">
@@ -1337,14 +1334,14 @@
         <v>72</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="62" t="s">
+      <c r="T6" s="58"/>
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="59"/>
+      <c r="W6" s="58"/>
     </row>
     <row r="7" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1396,12 +1393,12 @@
         <v>78</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="63"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="59"/>
+      <c r="W7" s="58"/>
     </row>
     <row r="8" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1424,7 +1421,7 @@
         <v>63</v>
       </c>
       <c r="H8" s="43"/>
-      <c r="I8" s="58" t="s">
+      <c r="I8" s="57" t="s">
         <v>81</v>
       </c>
       <c r="J8" s="45" t="s">
@@ -1439,7 +1436,7 @@
       <c r="M8" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="N8" s="61"/>
+      <c r="N8" s="60"/>
       <c r="O8" s="45" t="s">
         <v>103</v>
       </c>
@@ -1453,12 +1450,12 @@
         <v>78</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="63"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="59"/>
+      <c r="W8" s="58"/>
     </row>
     <row r="9" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1481,7 +1478,7 @@
         <v>63</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="58" t="s">
+      <c r="I9" s="57" t="s">
         <v>92</v>
       </c>
       <c r="J9" s="45" t="s">
@@ -1510,12 +1507,12 @@
         <v>78</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="63"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="59"/>
+      <c r="W9" s="58"/>
     </row>
     <row r="10" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1538,7 +1535,7 @@
         <v>62</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="57" t="s">
         <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -1567,12 +1564,12 @@
         <v>89</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="63"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="59"/>
+      <c r="W10" s="58"/>
     </row>
     <row r="11" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1624,12 +1621,12 @@
         <v>78</v>
       </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="63"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="59"/>
+      <c r="W11" s="58"/>
     </row>
     <row r="12" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1681,14 +1678,14 @@
         <v>89</v>
       </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="62" t="s">
+      <c r="T12" s="58"/>
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="59"/>
+      <c r="W12" s="58"/>
     </row>
     <row r="13" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1740,12 +1737,12 @@
         <v>89</v>
       </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="63"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="59"/>
+      <c r="W13" s="58"/>
     </row>
     <row r="14" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1795,12 +1792,12 @@
         <v>73</v>
       </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="63"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="59"/>
+      <c r="W14" s="58"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1825,11 +1822,11 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="59"/>
+      <c r="W15" s="58"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1854,11 +1851,11 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="59"/>
+      <c r="W16" s="58"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1883,9 +1880,9 @@
       <c r="R17" s="43"/>
       <c r="S17" s="4"/>
       <c r="T17" s="16"/>
-      <c r="U17" s="59"/>
+      <c r="U17" s="58"/>
       <c r="V17" s="17"/>
-      <c r="W17" s="59"/>
+      <c r="W17" s="58"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1937,7 +1934,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="4"/>
       <c r="T19" s="16"/>
-      <c r="U19" s="60" t="s">
+      <c r="U19" s="59" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="19" t="s">
@@ -2118,7 +2115,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="4"/>
       <c r="T25" s="16"/>
-      <c r="U25" s="60" t="s">
+      <c r="U25" s="59" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="19" t="s">
@@ -3085,6 +3082,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3096,13 +3100,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3113,8 +3110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3146,43 +3143,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3227,58 +3224,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="67" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -3303,23 +3300,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="67"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3341,7 +3338,7 @@
         <v>62</v>
       </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="57"/>
+      <c r="I6" s="56"/>
       <c r="J6" s="45"/>
       <c r="K6" s="48"/>
       <c r="L6" s="45"/>
@@ -3353,7 +3350,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3380,7 +3377,7 @@
         <v>62</v>
       </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="58"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="45"/>
       <c r="K7" s="1"/>
       <c r="L7" s="45"/>
@@ -3392,7 +3389,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3417,19 +3414,19 @@
         <v>62</v>
       </c>
       <c r="H8" s="43"/>
-      <c r="I8" s="58"/>
+      <c r="I8" s="57"/>
       <c r="J8" s="45"/>
       <c r="K8" s="46"/>
       <c r="L8" s="45"/>
       <c r="M8" s="45"/>
-      <c r="N8" s="61"/>
+      <c r="N8" s="60"/>
       <c r="O8" s="45"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3454,7 +3451,7 @@
         <v>62</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="58"/>
+      <c r="I9" s="57"/>
       <c r="J9" s="45"/>
       <c r="K9" s="45"/>
       <c r="L9" s="45"/>
@@ -3466,7 +3463,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3491,7 +3488,7 @@
         <v>62</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="58"/>
+      <c r="I10" s="57"/>
       <c r="J10" s="45"/>
       <c r="K10" s="1"/>
       <c r="L10" s="45"/>
@@ -3503,7 +3500,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3540,7 +3537,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3581,7 +3578,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3620,7 +3617,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3657,7 +3654,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3694,7 +3691,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3745,7 +3742,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4976,11 +4973,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -4994,6 +4986,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5004,8 +5001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="C3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5037,43 +5034,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -5118,58 +5115,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="67" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -5194,37 +5191,45 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="67"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="42">
+        <v>44257</v>
+      </c>
       <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="43"/>
+      <c r="D6" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="44">
+        <v>864811036969926</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43" t="s">
+        <v>62</v>
+      </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="57"/>
+      <c r="I6" s="56"/>
       <c r="J6" s="45"/>
       <c r="K6" s="48"/>
       <c r="L6" s="45"/>
@@ -5236,7 +5241,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5248,14 +5253,22 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="42">
+        <v>44257</v>
+      </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="43"/>
+      <c r="D7" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="44">
+        <v>866192037844949</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43" t="s">
+        <v>62</v>
+      </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="58"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="45"/>
       <c r="K7" s="1"/>
       <c r="L7" s="45"/>
@@ -5267,7 +5280,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5277,26 +5290,34 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="42"/>
+      <c r="B8" s="42">
+        <v>44257</v>
+      </c>
       <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="43"/>
+      <c r="D8" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="44">
+        <v>866192037786686</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43" t="s">
+        <v>62</v>
+      </c>
       <c r="H8" s="43"/>
-      <c r="I8" s="58"/>
+      <c r="I8" s="57"/>
       <c r="J8" s="45"/>
       <c r="K8" s="46"/>
       <c r="L8" s="45"/>
       <c r="M8" s="45"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="60"/>
       <c r="O8" s="45"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5306,14 +5327,22 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="42">
+        <v>44257</v>
+      </c>
       <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
+      <c r="D9" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="44">
+        <v>866050031810797</v>
+      </c>
       <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
+      <c r="G9" s="43" t="s">
+        <v>62</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="58"/>
+      <c r="I9" s="57"/>
       <c r="J9" s="45"/>
       <c r="K9" s="45"/>
       <c r="L9" s="45"/>
@@ -5325,7 +5354,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5335,14 +5364,22 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="42">
+        <v>44257</v>
+      </c>
       <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+      <c r="D10" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="44">
+        <v>866192037847876</v>
+      </c>
       <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
+      <c r="G10" s="43" t="s">
+        <v>62</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="58"/>
+      <c r="I10" s="57"/>
       <c r="J10" s="45"/>
       <c r="K10" s="1"/>
       <c r="L10" s="45"/>
@@ -5354,7 +5391,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5364,12 +5401,20 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="42">
+        <v>44257</v>
+      </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
+      <c r="D11" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="44">
+        <v>866192037805387</v>
+      </c>
       <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="G11" s="43" t="s">
+        <v>62</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="45"/>
       <c r="J11" s="45"/>
@@ -5383,7 +5428,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5393,16 +5438,28 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="42">
+        <v>44257</v>
+      </c>
       <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="D12" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="44">
+        <v>869627031772775</v>
+      </c>
       <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="G12" s="43" t="s">
+        <v>62</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="J12" s="45"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="L12" s="45"/>
       <c r="M12" s="45"/>
       <c r="N12" s="1"/>
@@ -5412,7 +5469,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5424,12 +5481,20 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="42"/>
+      <c r="B13" s="42">
+        <v>44257</v>
+      </c>
       <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
+      <c r="D13" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="44">
+        <v>866192037779822</v>
+      </c>
       <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="G13" s="43" t="s">
+        <v>62</v>
+      </c>
       <c r="H13" s="15"/>
       <c r="I13" s="45"/>
       <c r="J13" s="1"/>
@@ -5443,7 +5508,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5453,12 +5518,20 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="42"/>
+      <c r="B14" s="42">
+        <v>44257</v>
+      </c>
       <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
+      <c r="D14" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="44">
+        <v>864811037182180</v>
+      </c>
       <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="G14" s="43" t="s">
+        <v>62</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="45"/>
       <c r="J14" s="45"/>
@@ -5472,7 +5545,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5482,12 +5555,20 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="42"/>
+      <c r="B15" s="42">
+        <v>44257</v>
+      </c>
       <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
+      <c r="D15" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="44">
+        <v>866192037786181</v>
+      </c>
       <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
+      <c r="G15" s="43" t="s">
+        <v>62</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="45"/>
@@ -5501,7 +5582,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5511,26 +5592,48 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="42"/>
+      <c r="B16" s="42">
+        <v>44257</v>
+      </c>
       <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
+      <c r="D16" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="44">
+        <v>866192037821889</v>
+      </c>
       <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="G16" s="43" t="s">
+        <v>62</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
+      <c r="K16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>38</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="45"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="43"/>
+      <c r="P16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5540,23 +5643,51 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
+      <c r="B17" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="44">
+        <v>860157040212901</v>
+      </c>
       <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="43"/>
+      <c r="G17" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" s="47"/>
+      <c r="O17" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R17" s="43" t="s">
+        <v>72</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="16"/>
       <c r="U17" s="49"/>
@@ -5567,23 +5698,51 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
+      <c r="B18" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="44">
+        <v>868183035912620</v>
+      </c>
       <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
+      <c r="G18" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="43"/>
+      <c r="I18" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R18" s="43" t="s">
+        <v>78</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
@@ -5594,23 +5753,51 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
+      <c r="B19" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="44">
+        <v>868183035883490</v>
+      </c>
       <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="11"/>
+      <c r="G19" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="43"/>
+      <c r="I19" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="N19" s="60"/>
+      <c r="O19" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R19" s="43" t="s">
+        <v>78</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="16"/>
       <c r="U19" s="50" t="s">
@@ -5625,23 +5812,51 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
+      <c r="B20" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="44">
+        <v>868183038084567</v>
+      </c>
       <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="G20" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" s="45" t="s">
+        <v>94</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="11"/>
+      <c r="O20" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R20" s="43" t="s">
+        <v>78</v>
+      </c>
       <c r="S20" s="4"/>
       <c r="T20" s="16"/>
       <c r="U20" s="11" t="s">
@@ -5649,7 +5864,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -5657,23 +5872,51 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
+      <c r="B21" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="44">
+        <v>867857039921411</v>
+      </c>
       <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="G21" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="11"/>
+      <c r="O21" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P21" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="16"/>
       <c r="U21" s="11" t="s">
@@ -5689,23 +5932,51 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
+      <c r="B22" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="44">
+        <v>868183034539788</v>
+      </c>
       <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="11"/>
+      <c r="G22" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R22" s="43" t="s">
+        <v>78</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="16"/>
       <c r="U22" s="11" t="s">
@@ -5713,7 +5984,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -5721,23 +5992,51 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
+      <c r="B23" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="44">
+        <v>867857039916718</v>
+      </c>
       <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="11"/>
+      <c r="G23" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="S23" s="4"/>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
@@ -5748,23 +6047,51 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
+      <c r="B24" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="44">
+        <v>867717030427133</v>
+      </c>
       <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="11"/>
+      <c r="G24" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="S24" s="4"/>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
@@ -5775,23 +6102,49 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
+      <c r="B25" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="44">
+        <v>860157040234897</v>
+      </c>
       <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="11"/>
+      <c r="G25" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R25" s="43" t="s">
+        <v>73</v>
+      </c>
       <c r="S25" s="4"/>
       <c r="T25" s="16"/>
       <c r="U25" s="50" t="s">
@@ -5990,7 +6343,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W31" s="16"/>
     </row>
@@ -6054,7 +6407,7 @@
       </c>
       <c r="V33" s="11">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W33" s="16"/>
     </row>
@@ -6118,7 +6471,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -6182,7 +6535,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -6535,7 +6888,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="40">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U48" s="11" t="s">
         <v>57</v>
@@ -6761,6 +7114,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6772,13 +7132,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_TarisSG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang2\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang2\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>203.162.69.75,30030</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW, nâng cấp khay sim</t>
   </si>
 </sst>
 </file>
@@ -730,7 +736,22 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,21 +773,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1075,7 +1081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:R14"/>
     </sheetView>
   </sheetViews>
@@ -1108,43 +1114,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1189,58 +1195,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="66" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="59" t="s">
         <v>1</v>
       </c>
@@ -1265,23 +1271,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="59" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1335,7 +1341,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="58"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1394,7 +1400,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="58"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1451,7 +1457,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="58"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1508,7 +1514,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="58"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1565,7 +1571,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="58"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1622,7 +1628,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="58"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1679,7 +1685,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="58"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1738,7 +1744,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="58"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1793,7 +1799,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="58"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1822,7 +1828,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1851,7 +1857,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3082,13 +3088,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3100,6 +3099,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3110,8 +3116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:R16"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3143,43 +3149,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3224,58 +3230,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="66" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -3300,23 +3306,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3326,7 +3332,9 @@
       <c r="B6" s="42">
         <v>44257</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42">
+        <v>44252</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>67</v>
       </c>
@@ -3337,20 +3345,38 @@
       <c r="G6" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="69" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="T6" s="4"/>
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3365,7 +3391,9 @@
       <c r="B7" s="42">
         <v>44257</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="42">
+        <v>44252</v>
+      </c>
       <c r="D7" s="43" t="s">
         <v>67</v>
       </c>
@@ -3376,20 +3404,36 @@
       <c r="G7" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3402,7 +3446,9 @@
       <c r="B8" s="42">
         <v>44257</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="42">
+        <v>44252</v>
+      </c>
       <c r="D8" s="43" t="s">
         <v>67</v>
       </c>
@@ -3413,20 +3459,36 @@
       <c r="G8" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3439,7 +3501,9 @@
       <c r="B9" s="42">
         <v>44257</v>
       </c>
-      <c r="C9" s="42"/>
+      <c r="C9" s="42">
+        <v>44252</v>
+      </c>
       <c r="D9" s="43" t="s">
         <v>67</v>
       </c>
@@ -3450,20 +3514,38 @@
       <c r="G9" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>107</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="4"/>
+      <c r="O9" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T9" s="23"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3476,7 +3558,9 @@
       <c r="B10" s="42">
         <v>44257</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="42">
+        <v>44252</v>
+      </c>
       <c r="D10" s="43" t="s">
         <v>67</v>
       </c>
@@ -3487,20 +3571,38 @@
       <c r="G10" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>107</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="4"/>
+      <c r="O10" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T10" s="32"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3513,7 +3615,9 @@
       <c r="B11" s="42">
         <v>44257</v>
       </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="42">
+        <v>44252</v>
+      </c>
       <c r="D11" s="43" t="s">
         <v>67</v>
       </c>
@@ -3524,20 +3628,36 @@
       <c r="G11" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="43"/>
+      <c r="O11" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3550,7 +3670,9 @@
       <c r="B12" s="42">
         <v>44257</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="42">
+        <v>44252</v>
+      </c>
       <c r="D12" s="43" t="s">
         <v>67</v>
       </c>
@@ -3569,16 +3691,30 @@
       <c r="K12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
+      <c r="L12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="45" t="s">
+        <v>107</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="4"/>
+      <c r="O12" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T12" s="13"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3593,7 +3729,9 @@
       <c r="B13" s="42">
         <v>44257</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="42">
+        <v>44252</v>
+      </c>
       <c r="D13" s="43" t="s">
         <v>67</v>
       </c>
@@ -3604,20 +3742,36 @@
       <c r="G13" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="45"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
+      <c r="O13" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3630,7 +3784,9 @@
       <c r="B14" s="42">
         <v>44257</v>
       </c>
-      <c r="C14" s="42"/>
+      <c r="C14" s="42">
+        <v>44252</v>
+      </c>
       <c r="D14" s="43" t="s">
         <v>67</v>
       </c>
@@ -3642,19 +3798,37 @@
         <v>62</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+      <c r="I14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>107</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="4"/>
+      <c r="O14" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T14" s="13"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3667,7 +3841,9 @@
       <c r="B15" s="42">
         <v>44257</v>
       </c>
-      <c r="C15" s="42"/>
+      <c r="C15" s="42">
+        <v>44252</v>
+      </c>
       <c r="D15" s="43" t="s">
         <v>67</v>
       </c>
@@ -3679,19 +3855,35 @@
         <v>62</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
+      <c r="I15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>38</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="43"/>
+      <c r="O15" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3704,7 +3896,9 @@
       <c r="B16" s="42">
         <v>44257</v>
       </c>
-      <c r="C16" s="42"/>
+      <c r="C16" s="42">
+        <v>44252</v>
+      </c>
       <c r="D16" s="43" t="s">
         <v>67</v>
       </c>
@@ -3730,7 +3924,9 @@
         <v>38</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="45"/>
+      <c r="O16" s="45" t="s">
+        <v>103</v>
+      </c>
       <c r="P16" s="1" t="s">
         <v>68</v>
       </c>
@@ -3742,7 +3938,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3861,7 +4057,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -4330,7 +4526,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -4394,7 +4590,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -4973,6 +5169,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -4986,11 +5187,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5002,7 +5198,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="I3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:R25"/>
+      <selection activeCell="B6" sqref="B6:S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5034,43 +5230,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -5115,58 +5311,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="66" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -5191,23 +5387,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5217,7 +5413,9 @@
       <c r="B6" s="42">
         <v>44257</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42">
+        <v>44252</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>67</v>
       </c>
@@ -5228,20 +5426,38 @@
       <c r="G6" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="4"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T6" s="49"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5256,7 +5472,9 @@
       <c r="B7" s="42">
         <v>44257</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="42">
+        <v>44252</v>
+      </c>
       <c r="D7" s="43" t="s">
         <v>67</v>
       </c>
@@ -5267,20 +5485,36 @@
       <c r="G7" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5293,7 +5527,9 @@
       <c r="B8" s="42">
         <v>44257</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="42">
+        <v>44252</v>
+      </c>
       <c r="D8" s="43" t="s">
         <v>67</v>
       </c>
@@ -5304,20 +5540,36 @@
       <c r="G8" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5330,7 +5582,9 @@
       <c r="B9" s="42">
         <v>44257</v>
       </c>
-      <c r="C9" s="42"/>
+      <c r="C9" s="42">
+        <v>44252</v>
+      </c>
       <c r="D9" s="43" t="s">
         <v>67</v>
       </c>
@@ -5341,20 +5595,38 @@
       <c r="G9" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>107</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="4"/>
+      <c r="O9" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T9" s="49"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5367,7 +5639,9 @@
       <c r="B10" s="42">
         <v>44257</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="42">
+        <v>44252</v>
+      </c>
       <c r="D10" s="43" t="s">
         <v>67</v>
       </c>
@@ -5378,20 +5652,38 @@
       <c r="G10" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>107</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="4"/>
+      <c r="O10" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T10" s="49"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5404,7 +5696,9 @@
       <c r="B11" s="42">
         <v>44257</v>
       </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="42">
+        <v>44252</v>
+      </c>
       <c r="D11" s="43" t="s">
         <v>67</v>
       </c>
@@ -5415,20 +5709,36 @@
       <c r="G11" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="43"/>
+      <c r="O11" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5441,7 +5751,9 @@
       <c r="B12" s="42">
         <v>44257</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="42">
+        <v>44252</v>
+      </c>
       <c r="D12" s="43" t="s">
         <v>67</v>
       </c>
@@ -5460,16 +5772,30 @@
       <c r="K12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
+      <c r="L12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="45" t="s">
+        <v>107</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="4"/>
+      <c r="O12" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T12" s="49"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5484,7 +5810,9 @@
       <c r="B13" s="42">
         <v>44257</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="42">
+        <v>44252</v>
+      </c>
       <c r="D13" s="43" t="s">
         <v>67</v>
       </c>
@@ -5495,20 +5823,36 @@
       <c r="G13" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="45"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
+      <c r="O13" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5521,7 +5865,9 @@
       <c r="B14" s="42">
         <v>44257</v>
       </c>
-      <c r="C14" s="42"/>
+      <c r="C14" s="42">
+        <v>44252</v>
+      </c>
       <c r="D14" s="43" t="s">
         <v>67</v>
       </c>
@@ -5533,19 +5879,37 @@
         <v>62</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+      <c r="I14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>107</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="4"/>
+      <c r="O14" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="T14" s="49"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5558,7 +5922,9 @@
       <c r="B15" s="42">
         <v>44257</v>
       </c>
-      <c r="C15" s="42"/>
+      <c r="C15" s="42">
+        <v>44252</v>
+      </c>
       <c r="D15" s="43" t="s">
         <v>67</v>
       </c>
@@ -5570,19 +5936,35 @@
         <v>62</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
+      <c r="I15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>38</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="43"/>
+      <c r="O15" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5595,7 +5977,9 @@
       <c r="B16" s="42">
         <v>44257</v>
       </c>
-      <c r="C16" s="42"/>
+      <c r="C16" s="42">
+        <v>44252</v>
+      </c>
       <c r="D16" s="43" t="s">
         <v>67</v>
       </c>
@@ -5621,7 +6005,9 @@
         <v>38</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="45"/>
+      <c r="O16" s="45" t="s">
+        <v>103</v>
+      </c>
       <c r="P16" s="1" t="s">
         <v>68</v>
       </c>
@@ -5633,7 +6019,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5864,7 +6250,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -6471,7 +6857,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -6535,7 +6921,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -7114,13 +7500,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7132,6 +7511,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
